--- a/plan/Integral.xlsx
+++ b/plan/Integral.xlsx
@@ -7,16 +7,16 @@
     <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="主表" sheetId="1" r:id="rId1"/>
+    <sheet name="附表" sheetId="2" r:id="rId2"/>
+    <sheet name="随手记" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>合计</t>
   </si>
@@ -59,6 +59,12 @@
   <si>
     <t>购买运动耳机花费69元</t>
   </si>
+  <si>
+    <t>早起</t>
+  </si>
+  <si>
+    <t>写日记</t>
+  </si>
 </sst>
 </file>
 
@@ -66,9 +72,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="21">
@@ -239,6 +245,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -251,7 +263,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,6 +299,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -329,6 +347,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -365,79 +389,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,7 +466,9 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -473,9 +481,7 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -584,10 +590,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -596,16 +602,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -617,10 +623,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -641,111 +647,120 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1120,938 +1135,938 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="7">
         <v>0</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="7">
         <v>0</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="7">
         <v>0</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="7">
         <v>0</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="7">
         <v>0</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1" s="7">
         <v>0</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1" s="7">
         <v>-69</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I1" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:11">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>42982</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="9">
         <v>0</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="9">
         <v>0</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9">
         <v>-69</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6" t="s">
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
+      <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
+      <c r="A61" s="9"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
+      <c r="A62" s="9"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="6"/>
+      <c r="A63" s="9"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="6"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
-      <c r="K64" s="6"/>
+      <c r="A64" s="9"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="6"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="6"/>
+      <c r="A65" s="9"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="6"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
+      <c r="A66" s="9"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
-      <c r="K67" s="6"/>
+      <c r="A67" s="9"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="6"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
+      <c r="A68" s="9"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2066,14 +2081,369 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="15.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="76.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="71.625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:3">
+      <c r="A2" s="4">
+        <v>42982</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:3">
+      <c r="A27" s="6"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:3">
+      <c r="A28" s="6"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:3">
+      <c r="A29" s="6"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:3">
+      <c r="A30" s="6"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:3">
+      <c r="A31" s="6"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="1:3">
+      <c r="A32" s="6"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="1:3">
+      <c r="A33" s="6"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="1:3">
+      <c r="A34" s="6"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="1:3">
+      <c r="A35" s="6"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="1:3">
+      <c r="A36" s="6"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="1:3">
+      <c r="A37" s="6"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="1:3">
+      <c r="A38" s="6"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="1:3">
+      <c r="A39" s="6"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="1:3">
+      <c r="A40" s="6"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+    </row>
+    <row r="41" s="1" customFormat="1" spans="1:3">
+      <c r="A41" s="6"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="1:3">
+      <c r="A42" s="6"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="1:3">
+      <c r="A43" s="6"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+    </row>
+    <row r="44" s="1" customFormat="1" spans="1:3">
+      <c r="A44" s="6"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+    </row>
+    <row r="45" s="1" customFormat="1" spans="1:3">
+      <c r="A45" s="6"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+    </row>
+    <row r="46" s="1" customFormat="1" spans="1:3">
+      <c r="A46" s="6"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+    </row>
+    <row r="47" s="1" customFormat="1" spans="1:3">
+      <c r="A47" s="6"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="1:3">
+      <c r="A48" s="6"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+    </row>
+    <row r="49" s="1" customFormat="1" spans="1:3">
+      <c r="A49" s="6"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+    </row>
+    <row r="50" s="1" customFormat="1" spans="1:3">
+      <c r="A50" s="6"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+    </row>
+    <row r="51" s="1" customFormat="1" spans="1:3">
+      <c r="A51" s="6"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+    </row>
+    <row r="52" s="1" customFormat="1" spans="1:3">
+      <c r="A52" s="6"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+    </row>
+    <row r="53" s="1" customFormat="1" spans="1:3">
+      <c r="A53" s="6"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+    </row>
+    <row r="54" s="1" customFormat="1" spans="1:3">
+      <c r="A54" s="6"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+    </row>
+    <row r="55" s="1" customFormat="1" spans="1:3">
+      <c r="A55" s="6"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+    </row>
+    <row r="56" s="1" customFormat="1" spans="1:3">
+      <c r="A56" s="6"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+    </row>
+    <row r="57" s="1" customFormat="1" spans="1:3">
+      <c r="A57" s="6"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+    </row>
+    <row r="58" s="1" customFormat="1" spans="1:3">
+      <c r="A58" s="6"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+    </row>
+    <row r="59" s="1" customFormat="1" spans="1:3">
+      <c r="A59" s="6"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+    </row>
+    <row r="60" s="1" customFormat="1" spans="1:3">
+      <c r="A60" s="6"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+    </row>
+    <row r="61" s="1" customFormat="1" spans="1:3">
+      <c r="A61" s="6"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+    </row>
+    <row r="62" s="1" customFormat="1" spans="1:3">
+      <c r="A62" s="6"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+    </row>
+    <row r="63" s="1" customFormat="1" spans="1:3">
+      <c r="A63" s="6"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+    </row>
+    <row r="64" s="1" customFormat="1" spans="1:3">
+      <c r="A64" s="6"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+    </row>
+    <row r="65" s="1" customFormat="1" spans="1:3">
+      <c r="A65" s="6"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+    </row>
+    <row r="66" s="1" customFormat="1" spans="1:3">
+      <c r="A66" s="6"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+    </row>
+    <row r="67" s="1" customFormat="1" spans="2:3">
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+    </row>
+    <row r="68" s="1" customFormat="1" spans="2:3">
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -2083,14 +2453,23 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/plan/Integral.xlsx
+++ b/plan/Integral.xlsx
@@ -71,11 +71,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -214,8 +214,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,9 +229,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,6 +263,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -275,175 +437,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,10 +590,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -602,137 +602,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -758,9 +758,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1123,12 +1120,12 @@
   <cols>
     <col min="1" max="1" width="14" style="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="12.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
     <col min="6" max="6" width="20.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.875" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="58.75" style="1" customWidth="1"/>
     <col min="11" max="11" width="28.75" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
@@ -1217,856 +1214,856 @@
       <c r="A4" s="4">
         <v>42982</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="6">
         <v>0</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="6">
         <v>0</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6">
         <v>-69</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9" t="s">
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="4"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="4"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="4"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="4"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="4"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="4"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="4"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="4"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="4"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="4"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="4"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="4"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="4"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="4"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="4"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="4"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="4"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="4"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="4"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="4"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="4"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="4"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="4"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="4"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="4"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="4"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="9"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="9"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="9"/>
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="9"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="9"/>
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="9"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
-      <c r="K57" s="9"/>
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="9"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
-      <c r="K58" s="9"/>
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="9"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
-      <c r="K59" s="9"/>
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="9"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
-      <c r="K60" s="9"/>
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="9"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="9"/>
-      <c r="K61" s="9"/>
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="9"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="9"/>
-      <c r="K62" s="9"/>
+      <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="9"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="9"/>
-      <c r="K63" s="9"/>
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="9"/>
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="9"/>
-      <c r="K64" s="9"/>
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="9"/>
-      <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
-      <c r="J65" s="9"/>
-      <c r="K65" s="9"/>
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="9"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="9"/>
-      <c r="K66" s="9"/>
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="9"/>
-      <c r="B67" s="9"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
-      <c r="J67" s="9"/>
-      <c r="K67" s="9"/>
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="9"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9"/>
-      <c r="J68" s="9"/>
-      <c r="K68" s="9"/>
+      <c r="A68" s="6"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/plan/Integral.xlsx
+++ b/plan/Integral.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="主表" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>合计</t>
   </si>
@@ -65,17 +65,20 @@
   <si>
     <t>写日记</t>
   </si>
+  <si>
+    <t>面试题30题</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -214,9 +217,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,8 +231,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,6 +266,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -275,18 +296,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -299,25 +350,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,30 +416,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -371,79 +428,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,10 +593,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -602,133 +605,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1110,7 +1113,7 @@
   <sheetPr/>
   <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -2450,20 +2453,26 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/plan/Integral.xlsx
+++ b/plan/Integral.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\workSpace\diary\plan\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="主表" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>合计</t>
   </si>
@@ -51,36 +56,28 @@
     <t>澄儿礼物/电子产品</t>
   </si>
   <si>
-    <t>积分变化说明</t>
-  </si>
-  <si>
     <t>经费变化说明</t>
   </si>
   <si>
     <t>购买运动耳机花费69元</t>
   </si>
   <si>
-    <t>早起</t>
+    <t>面试题30，向恩玺请教1，日记上传1，共计6+5+1=12分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>写日记</t>
-  </si>
-  <si>
-    <t>面试题30题</t>
+    <t>步行1小时，早睡早起，无sy1，共计10+2=12分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,151 +92,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -248,210 +107,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.8"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.4"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -487,251 +160,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -748,7 +179,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -764,61 +195,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1105,21 +492,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:K68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14" style="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="1"/>
@@ -1129,20 +515,19 @@
     <col min="7" max="7" width="11.875" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="19.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="58.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="28.75" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="10" max="10" width="28.75" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C1" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D1" s="7">
         <v>0</v>
@@ -1163,7 +548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1176,9 +561,8 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:11">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1209,19 +593,16 @@
       <c r="J3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>42982</v>
       </c>
       <c r="B4" s="6">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C4" s="6">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -1231,12 +612,11 @@
         <v>-69</v>
       </c>
       <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="J4" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1247,9 +627,8 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-    </row>
-    <row r="6" spans="1:11">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -1260,9 +639,8 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-    </row>
-    <row r="7" spans="1:11">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -1273,9 +651,8 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="1:11">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -1286,9 +663,8 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-    </row>
-    <row r="9" spans="1:11">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1299,9 +675,8 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="1:11">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1312,9 +687,8 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-    </row>
-    <row r="11" spans="1:11">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1325,9 +699,8 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-    </row>
-    <row r="12" spans="1:11">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -1338,9 +711,8 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="1:11">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1351,9 +723,8 @@
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-    </row>
-    <row r="14" spans="1:11">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -1364,9 +735,8 @@
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-    </row>
-    <row r="15" spans="1:11">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1377,9 +747,8 @@
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-    </row>
-    <row r="16" spans="1:11">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -1390,9 +759,8 @@
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-    </row>
-    <row r="17" spans="1:11">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -1403,9 +771,8 @@
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-    </row>
-    <row r="18" spans="1:11">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -1416,9 +783,8 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-    </row>
-    <row r="19" spans="1:11">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1429,9 +795,8 @@
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-    </row>
-    <row r="20" spans="1:11">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -1442,9 +807,8 @@
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-    </row>
-    <row r="21" spans="1:11">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1455,9 +819,8 @@
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-    </row>
-    <row r="22" spans="1:11">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -1468,9 +831,8 @@
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-    </row>
-    <row r="23" spans="1:11">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -1481,9 +843,8 @@
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-    </row>
-    <row r="24" spans="1:11">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -1494,9 +855,8 @@
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-    </row>
-    <row r="25" spans="1:11">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -1507,9 +867,8 @@
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-    </row>
-    <row r="26" spans="1:11">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -1520,9 +879,8 @@
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-    </row>
-    <row r="27" spans="1:11">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1533,9 +891,8 @@
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-    </row>
-    <row r="28" spans="1:11">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -1546,9 +903,8 @@
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-    </row>
-    <row r="29" spans="1:11">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -1559,9 +915,8 @@
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-    </row>
-    <row r="30" spans="1:11">
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -1572,9 +927,8 @@
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-    </row>
-    <row r="31" spans="1:11">
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -1585,9 +939,8 @@
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-    </row>
-    <row r="32" spans="1:11">
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -1598,9 +951,8 @@
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-    </row>
-    <row r="33" spans="1:11">
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -1611,9 +963,8 @@
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-    </row>
-    <row r="34" spans="1:11">
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -1624,9 +975,8 @@
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-    </row>
-    <row r="35" spans="1:11">
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -1637,9 +987,8 @@
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-    </row>
-    <row r="36" spans="1:11">
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -1650,9 +999,8 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-    </row>
-    <row r="37" spans="1:11">
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -1663,9 +1011,8 @@
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-    </row>
-    <row r="38" spans="1:11">
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -1676,9 +1023,8 @@
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-    </row>
-    <row r="39" spans="1:11">
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -1689,9 +1035,8 @@
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-    </row>
-    <row r="40" spans="1:11">
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -1702,9 +1047,8 @@
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-    </row>
-    <row r="41" spans="1:11">
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -1715,9 +1059,8 @@
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-    </row>
-    <row r="42" spans="1:11">
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -1728,9 +1071,8 @@
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-    </row>
-    <row r="43" spans="1:11">
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -1741,9 +1083,8 @@
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-    </row>
-    <row r="44" spans="1:11">
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -1754,9 +1095,8 @@
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-    </row>
-    <row r="45" spans="1:11">
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -1767,9 +1107,8 @@
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-    </row>
-    <row r="46" spans="1:11">
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -1780,9 +1119,8 @@
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-    </row>
-    <row r="47" spans="1:11">
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -1793,9 +1131,8 @@
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-    </row>
-    <row r="48" spans="1:11">
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -1806,9 +1143,8 @@
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-    </row>
-    <row r="49" spans="1:11">
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -1819,9 +1155,8 @@
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-    </row>
-    <row r="50" spans="1:11">
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -1832,9 +1167,8 @@
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-    </row>
-    <row r="51" spans="1:11">
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -1845,9 +1179,8 @@
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-    </row>
-    <row r="52" spans="1:11">
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -1858,9 +1191,8 @@
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-    </row>
-    <row r="53" spans="1:11">
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -1871,9 +1203,8 @@
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-    </row>
-    <row r="54" spans="1:11">
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -1884,9 +1215,8 @@
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-    </row>
-    <row r="55" spans="1:11">
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -1897,9 +1227,8 @@
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-    </row>
-    <row r="56" spans="1:11">
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -1910,9 +1239,8 @@
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-    </row>
-    <row r="57" spans="1:11">
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -1923,9 +1251,8 @@
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
-    </row>
-    <row r="58" spans="1:11">
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -1936,9 +1263,8 @@
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-    </row>
-    <row r="59" spans="1:11">
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -1949,9 +1275,8 @@
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
-    </row>
-    <row r="60" spans="1:11">
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -1962,9 +1287,8 @@
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
-    </row>
-    <row r="61" spans="1:11">
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -1975,9 +1299,8 @@
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
-    </row>
-    <row r="62" spans="1:11">
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -1988,9 +1311,8 @@
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
-    </row>
-    <row r="63" spans="1:11">
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -2001,9 +1323,8 @@
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
-      <c r="K63" s="6"/>
-    </row>
-    <row r="64" spans="1:11">
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -2014,9 +1335,8 @@
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
-      <c r="K64" s="6"/>
-    </row>
-    <row r="65" spans="1:11">
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -2027,9 +1347,8 @@
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
-      <c r="K65" s="6"/>
-    </row>
-    <row r="66" spans="1:11">
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -2040,9 +1359,8 @@
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-    </row>
-    <row r="67" spans="1:11">
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -2053,9 +1371,8 @@
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
-      <c r="K67" s="6"/>
-    </row>
-    <row r="68" spans="1:11">
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -2066,30 +1383,27 @@
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A2:J2"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="$A1:$XFD1"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="76.625" style="2" customWidth="1"/>
@@ -2097,7 +1411,7 @@
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -2108,376 +1422,359 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>42982</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:3">
+      <c r="B2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" s="1" customFormat="1" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="6"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" s="1" customFormat="1" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" s="1" customFormat="1" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="6"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" s="1" customFormat="1" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="6"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" s="1" customFormat="1" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
     </row>
-    <row r="27" s="1" customFormat="1" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="6"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
     </row>
-    <row r="28" s="1" customFormat="1" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="6"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
     </row>
-    <row r="29" s="1" customFormat="1" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="6"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
     </row>
-    <row r="30" s="1" customFormat="1" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="6"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
     </row>
-    <row r="31" s="1" customFormat="1" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="6"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
     </row>
-    <row r="32" s="1" customFormat="1" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="6"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
     </row>
-    <row r="33" s="1" customFormat="1" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="6"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
     </row>
-    <row r="34" s="1" customFormat="1" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="6"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
     </row>
-    <row r="35" s="1" customFormat="1" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="6"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
     </row>
-    <row r="36" s="1" customFormat="1" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="6"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
     </row>
-    <row r="37" s="1" customFormat="1" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="6"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
     </row>
-    <row r="38" s="1" customFormat="1" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="6"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
     </row>
-    <row r="39" s="1" customFormat="1" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="6"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
     </row>
-    <row r="40" s="1" customFormat="1" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="6"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
     </row>
-    <row r="41" s="1" customFormat="1" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="6"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
     </row>
-    <row r="42" s="1" customFormat="1" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="6"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
     </row>
-    <row r="43" s="1" customFormat="1" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="6"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
     </row>
-    <row r="44" s="1" customFormat="1" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="6"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
     </row>
-    <row r="45" s="1" customFormat="1" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="6"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
     </row>
-    <row r="46" s="1" customFormat="1" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="6"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
     </row>
-    <row r="47" s="1" customFormat="1" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="6"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
     </row>
-    <row r="48" s="1" customFormat="1" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" s="6"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
     </row>
-    <row r="49" s="1" customFormat="1" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="6"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
     </row>
-    <row r="50" s="1" customFormat="1" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="6"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
     </row>
-    <row r="51" s="1" customFormat="1" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="6"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
     </row>
-    <row r="52" s="1" customFormat="1" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="6"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
     </row>
-    <row r="53" s="1" customFormat="1" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="6"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
     </row>
-    <row r="54" s="1" customFormat="1" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="6"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
     </row>
-    <row r="55" s="1" customFormat="1" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" s="6"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
     </row>
-    <row r="56" s="1" customFormat="1" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" s="6"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
     </row>
-    <row r="57" s="1" customFormat="1" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" s="6"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
     </row>
-    <row r="58" s="1" customFormat="1" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="6"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
     </row>
-    <row r="59" s="1" customFormat="1" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="6"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
     </row>
-    <row r="60" s="1" customFormat="1" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" s="6"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
     </row>
-    <row r="61" s="1" customFormat="1" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" s="6"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
     </row>
-    <row r="62" s="1" customFormat="1" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" s="6"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
     </row>
-    <row r="63" s="1" customFormat="1" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" s="6"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
     </row>
-    <row r="64" s="1" customFormat="1" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="6"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
     </row>
-    <row r="65" s="1" customFormat="1" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="6"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
     </row>
-    <row r="66" s="1" customFormat="1" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" s="6"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
     </row>
-    <row r="67" s="1" customFormat="1" spans="2:3">
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-    </row>
-    <row r="68" s="1" customFormat="1" spans="2:3">
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="14.75" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/plan/Integral.xlsx
+++ b/plan/Integral.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>合计</t>
   </si>
@@ -69,13 +69,21 @@
     <t>步行1小时，早睡早起，无sy1，共计10+2=12分</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>面试题20，日记上传1，共计4+1=5分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跑步+步行1小时，无sy2，共计10分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -179,7 +187,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -524,10 +532,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="7">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C1" s="7">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D1" s="7">
         <v>0</v>
@@ -617,9 +625,15 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="4"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
+      <c r="A5" s="4">
+        <v>42983</v>
+      </c>
+      <c r="B5" s="6">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6">
+        <v>10</v>
+      </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -1399,8 +1413,8 @@
   <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
@@ -1434,9 +1448,15 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="6"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="A3" s="4">
+        <v>42983</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>

--- a/plan/Integral.xlsx
+++ b/plan/Integral.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>合计</t>
   </si>
@@ -75,6 +75,14 @@
   </si>
   <si>
     <t>跑步+步行1小时，无sy2，共计10分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试题20，日记上传1，视频1小时，案例代码50行。共计4+1+5+5=15分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>步行1小时，sy1，共计10=10分</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -510,7 +518,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
@@ -532,10 +540,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="7">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C1" s="7">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D1" s="7">
         <v>0</v>
@@ -643,9 +651,15 @@
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="4"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+      <c r="A6" s="4">
+        <v>42984</v>
+      </c>
+      <c r="B6" s="6">
+        <v>15</v>
+      </c>
+      <c r="C6" s="6">
+        <v>10</v>
+      </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -1414,7 +1428,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
@@ -1459,9 +1473,15 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="6"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
+      <c r="A4" s="4">
+        <v>42984</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>

--- a/plan/Integral.xlsx
+++ b/plan/Integral.xlsx
@@ -1,29 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\workSpace\diary\plan\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="主表" sheetId="1" r:id="rId1"/>
     <sheet name="附表" sheetId="2" r:id="rId2"/>
-    <sheet name="随手记" sheetId="3" r:id="rId3"/>
+    <sheet name="草稿本" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>合计</t>
+  </si>
+  <si>
+    <t>总分10000分，达到则称神！</t>
   </si>
   <si>
     <t>每日变化</t>
@@ -62,38 +60,39 @@
     <t>购买运动耳机花费69元</t>
   </si>
   <si>
+    <t>因没能坚持，积分清零！</t>
+  </si>
+  <si>
     <t>面试题30，向恩玺请教1，日记上传1，共计6+5+1=12分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>步行1小时，早睡早起，无sy1，共计10+2=12分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>面试题20，日记上传1，共计4+1=5分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>跑步+步行1小时，无sy2，共计10分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>面试题20，日记上传1，视频1小时，案例代码50行。共计4+1+5+5=15分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>步行1小时，sy1，共计10=10分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,13 +107,157 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,13 +266,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="3" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -139,8 +288,200 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.35"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -176,13 +517,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -204,24 +787,83 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -508,20 +1150,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="1" width="14" style="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="1"/>
@@ -535,82 +1178,85 @@
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7">
-        <v>32</v>
-      </c>
-      <c r="C1" s="7">
-        <v>32</v>
-      </c>
-      <c r="D1" s="7">
+      <c r="B1" s="9">
         <v>0</v>
       </c>
-      <c r="E1" s="7">
+      <c r="C1" s="9">
         <v>0</v>
       </c>
-      <c r="F1" s="7">
+      <c r="D1" s="9">
         <v>0</v>
       </c>
-      <c r="G1" s="7">
+      <c r="E1" s="9">
         <v>0</v>
       </c>
-      <c r="H1" s="7">
-        <v>-69</v>
-      </c>
-      <c r="I1" s="7">
+      <c r="F1" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+      <c r="G1" s="9">
+        <v>0</v>
+      </c>
+      <c r="H1" s="9">
+        <v>0</v>
+      </c>
+      <c r="I1" s="9">
+        <v>0</v>
+      </c>
+      <c r="J1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="4">
         <v>42982</v>
       </c>
@@ -624,15 +1270,13 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="6">
-        <v>-69</v>
-      </c>
+      <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="4">
         <v>42983</v>
       </c>
@@ -650,7 +1294,7 @@
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10">
       <c r="A6" s="4">
         <v>42984</v>
       </c>
@@ -668,7 +1312,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10">
       <c r="A7" s="4"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -680,22 +1324,32 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="4"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+    <row r="8" spans="1:10">
+      <c r="A8" s="7">
+        <v>43017</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="11">
+        <v>43018</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -704,10 +1358,12 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="4"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
+    <row r="10" spans="1:10">
+      <c r="A10" s="11">
+        <v>43019</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -716,10 +1372,12 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="4"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
+    <row r="11" spans="1:10">
+      <c r="A11" s="11">
+        <v>43020</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -728,10 +1386,12 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="4"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
+    <row r="12" spans="1:10">
+      <c r="A12" s="11">
+        <v>43021</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -740,7 +1400,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10">
       <c r="A13" s="4"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -752,7 +1412,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10">
       <c r="A14" s="4"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -764,7 +1424,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10">
       <c r="A15" s="4"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -776,7 +1436,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10">
       <c r="A16" s="4"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -788,7 +1448,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10">
       <c r="A17" s="4"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -800,7 +1460,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10">
       <c r="A18" s="4"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -812,7 +1472,7 @@
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10">
       <c r="A19" s="4"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -824,7 +1484,7 @@
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10">
       <c r="A20" s="4"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -836,7 +1496,7 @@
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10">
       <c r="A21" s="4"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -848,7 +1508,7 @@
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10">
       <c r="A22" s="4"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -860,7 +1520,7 @@
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10">
       <c r="A23" s="4"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -872,7 +1532,7 @@
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10">
       <c r="A24" s="4"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -884,7 +1544,7 @@
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10">
       <c r="A25" s="4"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -896,7 +1556,7 @@
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10">
       <c r="A26" s="4"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -908,7 +1568,7 @@
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10">
       <c r="A27" s="4"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -920,7 +1580,7 @@
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10">
       <c r="A28" s="4"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -932,7 +1592,7 @@
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10">
       <c r="A29" s="4"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -944,7 +1604,7 @@
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10">
       <c r="A30" s="4"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -956,7 +1616,7 @@
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -968,7 +1628,7 @@
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -980,7 +1640,7 @@
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -992,7 +1652,7 @@
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -1004,7 +1664,7 @@
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -1016,7 +1676,7 @@
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -1028,7 +1688,7 @@
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -1040,7 +1700,7 @@
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -1052,7 +1712,7 @@
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -1064,7 +1724,7 @@
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -1076,7 +1736,7 @@
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -1088,7 +1748,7 @@
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -1100,7 +1760,7 @@
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -1112,7 +1772,7 @@
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -1124,7 +1784,7 @@
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -1136,7 +1796,7 @@
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -1148,7 +1808,7 @@
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -1160,7 +1820,7 @@
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -1172,7 +1832,7 @@
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -1184,7 +1844,7 @@
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -1196,7 +1856,7 @@
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -1208,7 +1868,7 @@
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:10">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -1220,7 +1880,7 @@
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:10">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -1232,7 +1892,7 @@
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:10">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -1244,7 +1904,7 @@
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -1256,7 +1916,7 @@
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -1268,7 +1928,7 @@
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:10">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -1280,7 +1940,7 @@
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:10">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -1292,7 +1952,7 @@
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:10">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -1304,7 +1964,7 @@
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:10">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -1316,7 +1976,7 @@
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:10">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -1328,7 +1988,7 @@
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:10">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -1340,7 +2000,7 @@
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:10">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -1352,7 +2012,7 @@
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:10">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -1364,7 +2024,7 @@
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:10">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -1376,7 +2036,7 @@
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:10">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -1388,7 +2048,7 @@
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:10">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -1400,7 +2060,7 @@
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:10">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -1416,22 +2076,24 @@
   <mergeCells count="1">
     <mergeCell ref="A2:J2"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="15.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="76.625" style="2" customWidth="1"/>
@@ -1439,382 +2101,389 @@
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="4">
         <v>42982</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="4">
         <v>42983</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="4">
         <v>42984</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="6"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="6"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
+      <c r="A6" s="7">
+        <v>43017</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="6"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" s="6"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" s="6"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" s="6"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" s="6"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" s="6"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13" s="6"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="A14" s="6"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="A15" s="6"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="A16" s="6"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3">
       <c r="A17" s="6"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3">
       <c r="A18" s="6"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3">
       <c r="A19" s="6"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3">
       <c r="A20" s="6"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3">
       <c r="A21" s="6"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3">
       <c r="A22" s="6"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3">
       <c r="A23" s="6"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3">
       <c r="A24" s="6"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3">
       <c r="A25" s="6"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3">
       <c r="A26" s="6"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3">
       <c r="A27" s="6"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3">
       <c r="A28" s="6"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3">
       <c r="A29" s="6"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3">
       <c r="A30" s="6"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3">
       <c r="A31" s="6"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3">
       <c r="A32" s="6"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3">
       <c r="A33" s="6"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3">
       <c r="A34" s="6"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3">
       <c r="A35" s="6"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3">
       <c r="A36" s="6"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3">
       <c r="A37" s="6"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3">
       <c r="A38" s="6"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3">
       <c r="A39" s="6"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3">
       <c r="A40" s="6"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3">
       <c r="A41" s="6"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3">
       <c r="A42" s="6"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3">
       <c r="A43" s="6"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3">
       <c r="A44" s="6"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3">
       <c r="A45" s="6"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3">
       <c r="A46" s="6"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3">
       <c r="A47" s="6"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3">
       <c r="A48" s="6"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3">
       <c r="A49" s="6"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3">
       <c r="A50" s="6"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:3">
       <c r="A51" s="6"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3">
       <c r="A52" s="6"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3">
       <c r="A53" s="6"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:3">
       <c r="A54" s="6"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:3">
       <c r="A55" s="6"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:3">
       <c r="A56" s="6"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:3">
       <c r="A57" s="6"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:3">
       <c r="A58" s="6"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:3">
       <c r="A59" s="6"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:3">
       <c r="A60" s="6"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:3">
       <c r="A61" s="6"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:3">
       <c r="A62" s="6"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:3">
       <c r="A63" s="6"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:3">
       <c r="A64" s="6"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:3">
       <c r="A65" s="6"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:3">
       <c r="A66" s="6"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="14.75" customWidth="1"/>
   </cols>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>